--- a/inst/pr_wyniki.xlsx
+++ b/inst/pr_wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zajac/Dropbox/PEJK/ASIA/Pakiet ASIA/ASIA1/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9146CD-564C-664A-8CCB-A36E189CAD6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552DF7CA-464C-6C43-B21F-22F98728BA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1580" windowWidth="24280" windowHeight="14280" xr2:uid="{D26FE942-611F-194F-963B-EC166835772B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="25">
   <si>
     <t>pesel</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D06C5-8ECE-DF48-95D1-56176BA24442}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A31" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,16 +1133,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>98090200029</v>
+        <v>98090200001</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>-9</v>
+        <v>97</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>9</v>
@@ -1150,16 +1156,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>98090200030</v>
+        <v>98090200002</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>-9</v>
+        <v>96</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>9</v>
@@ -1167,16 +1179,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>98090200001</v>
+        <v>98090200003</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="D32">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1188,84 +1200,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>98090200002</v>
+        <v>98090300001</v>
       </c>
       <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>98090300002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
         <v>12</v>
       </c>
-      <c r="D33">
-        <v>96</v>
-      </c>
-      <c r="F33">
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>98090200003</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>94</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>98090300001</v>
+        <v>98090300003</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>98090300002</v>
+        <v>98090300004</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1274,18 +1280,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>98090300003</v>
+        <v>98090300005</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1294,78 +1300,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>98090300004</v>
+        <v>98090300006</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>98090300005</v>
+        <v>98090300007</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>98090300006</v>
+        <v>98090300008</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>98090300007</v>
+        <v>98090300009</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1374,38 +1380,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>98090300008</v>
+        <v>98090300010</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>-100</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>98090300009</v>
+        <v>98090300011</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>-100</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1414,15 +1420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>98090300010</v>
+        <v>98090400001</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>-100</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1431,18 +1437,18 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>98090300011</v>
+        <v>98090400002</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>-100</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1451,21 +1457,21 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>98090400001</v>
+        <v>98090400003</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1474,18 +1480,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>98090400002</v>
+        <v>98090400004</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
       <c r="D47">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1494,98 +1500,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>98090400003</v>
+        <v>98090400005</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="D48">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>98090400004</v>
+        <v>98090400006</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="D49">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>98090400005</v>
+        <v>98090400007</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>98090400006</v>
+        <v>98090400008</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>98090400007</v>
+        <v>98090400009</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1596,56 +1602,56 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>98090400008</v>
+        <v>98090400010</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>98090400009</v>
+        <v>98090400011</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="D54">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>98090400010</v>
+        <v>98090400012</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="D55">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1656,16 +1662,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>98090400011</v>
+        <v>98090400013</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -1676,16 +1682,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>98090400012</v>
+        <v>98090400014</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -1696,16 +1702,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>98090400013</v>
+        <v>98090400015</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="D58">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -1716,16 +1722,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>98090400014</v>
+        <v>98090400016</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="D59">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -1736,76 +1742,76 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>98090400015</v>
+        <v>98090400017</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="D60">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>98090400016</v>
+        <v>98090400018</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="D61">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>98090400017</v>
+        <v>98090400019</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>98090400018</v>
+        <v>98090400020</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1816,16 +1822,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>98090400019</v>
+        <v>98090400001</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>49</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -1836,33 +1839,30 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>98090400020</v>
+        <v>98090400002</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>48</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>98090400001</v>
+        <v>98090400003</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="D66">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>98090400002</v>
+        <v>98090400004</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="D67">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>98090400003</v>
+        <v>98090400005</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="D68">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>98090400004</v>
+        <v>98090400006</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
       <c r="D69">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>98090400005</v>
+        <v>98090400007</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="D70">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>98090400006</v>
+        <v>98090400008</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="D71">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -1958,47 +1958,47 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>98090400007</v>
+        <v>98090400009</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
       </c>
       <c r="D72">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>98090400008</v>
+        <v>98090400010</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>98090400009</v>
+        <v>98090400011</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="D74">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>98090400010</v>
+        <v>98090400012</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="D75">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>98090400011</v>
+        <v>98090400013</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
       </c>
       <c r="D76">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>98090400012</v>
+        <v>98090400014</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="D77">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>98090400013</v>
+        <v>98090400015</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="D78">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>98090400014</v>
+        <v>98090400016</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="D79">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>98090400015</v>
+        <v>98090400017</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
       </c>
       <c r="D80">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>98090400016</v>
+        <v>98090400018</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="D81">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2128,50 +2128,56 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>98090400017</v>
+        <v>98090400001</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D82">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>98090400018</v>
+        <v>98090400002</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>98090400001</v>
+        <v>98090400003</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="D84">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2182,16 +2188,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>98090400002</v>
+        <v>98090400004</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="D85">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>98090400003</v>
+        <v>98090400005</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
       </c>
       <c r="D86">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>98090400004</v>
+        <v>98090400006</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -2242,99 +2248,99 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>98090400005</v>
+        <v>98090400007</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
       <c r="D88">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>98090400006</v>
+        <v>98090400008</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>98090400007</v>
+        <v>98090400009</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
       </c>
       <c r="D90">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>98090400008</v>
+        <v>98090400010</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="D91">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>98090400009</v>
+        <v>98090400011</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
       <c r="D92">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>98090400010</v>
+        <v>98090400012</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="D93">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -2362,59 +2368,59 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>98090400011</v>
+        <v>98090400013</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="D94">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>98090400012</v>
+        <v>98090400014</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
       </c>
       <c r="D95">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>98090400013</v>
+        <v>98090400015</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
       </c>
       <c r="D96">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F96">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -2422,16 +2428,16 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>98090400014</v>
+        <v>98090400016</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="D97">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F97">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -2442,16 +2448,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>98090400015</v>
+        <v>98090400017</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
       </c>
       <c r="D98">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F98">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2462,39 +2468,36 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98090400016</v>
+        <v>98090400018</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
       </c>
       <c r="D99">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F99">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98090400017</v>
+        <v>98090400001</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D100">
-        <v>27</v>
-      </c>
-      <c r="F100">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -2502,67 +2505,64 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>98090400018</v>
+        <v>98090400002</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>26</v>
-      </c>
-      <c r="F101">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>98090400001</v>
+        <v>98090400003</v>
       </c>
       <c r="B102" t="s">
         <v>21</v>
       </c>
       <c r="D102">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>98090400002</v>
+        <v>98090400004</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
       </c>
       <c r="D103">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>98090400003</v>
+        <v>98090400005</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
       </c>
       <c r="D104">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>98090400004</v>
+        <v>98090400006</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="D105">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>98090400005</v>
+        <v>98090400007</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
       </c>
       <c r="D106">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>98090400006</v>
+        <v>98090400008</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
       </c>
       <c r="D107">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -2624,30 +2624,30 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>98090400007</v>
+        <v>98090400009</v>
       </c>
       <c r="B108" t="s">
         <v>21</v>
       </c>
       <c r="D108">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>98090400008</v>
+        <v>98090400009</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D109">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>98090400009</v>
+        <v>98090400001</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -2675,13 +2675,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>98090400009</v>
+        <v>98090400002</v>
       </c>
       <c r="B111" t="s">
         <v>22</v>
       </c>
       <c r="D111">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>98090400001</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D112">
         <v>98</v>
@@ -2704,18 +2704,18 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>98090400002</v>
+        <v>98090100001</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D113">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -2726,13 +2726,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>98090400001</v>
+        <v>98090100002</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>98090100001</v>
+        <v>98090100003</v>
       </c>
       <c r="B115" t="s">
         <v>24</v>
       </c>
       <c r="D115">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>98090100002</v>
+        <v>98090100004</v>
       </c>
       <c r="B116" t="s">
         <v>24</v>
       </c>
       <c r="D116">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>98090100003</v>
+        <v>98090100005</v>
       </c>
       <c r="B117" t="s">
         <v>24</v>
       </c>
       <c r="D117">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -2794,13 +2794,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>98090100004</v>
+        <v>98090100006</v>
       </c>
       <c r="B118" t="s">
         <v>24</v>
       </c>
       <c r="D118">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -2811,13 +2811,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>98090100005</v>
+        <v>98090100007</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
       </c>
       <c r="D119">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -2828,13 +2828,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>98090100006</v>
+        <v>98090100008</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
       </c>
       <c r="D120">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -2845,13 +2845,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>98090100007</v>
+        <v>98090100009</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
       </c>
       <c r="D121">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -2862,13 +2862,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>98090100008</v>
+        <v>98090100010</v>
       </c>
       <c r="B122" t="s">
         <v>24</v>
       </c>
       <c r="D122">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -2879,47 +2879,47 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>98090100009</v>
+        <v>98090100011</v>
       </c>
       <c r="B123" t="s">
         <v>24</v>
       </c>
       <c r="D123">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>98090100010</v>
+        <v>98090100012</v>
       </c>
       <c r="B124" t="s">
         <v>24</v>
       </c>
       <c r="D124">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>98090100011</v>
+        <v>98090100013</v>
       </c>
       <c r="B125" t="s">
         <v>24</v>
       </c>
       <c r="D125">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>98090100012</v>
+        <v>98090100014</v>
       </c>
       <c r="B126" t="s">
         <v>24</v>
       </c>
       <c r="D126">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -2947,13 +2947,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>98090100013</v>
+        <v>98090100015</v>
       </c>
       <c r="B127" t="s">
         <v>24</v>
       </c>
       <c r="D127">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>98090100014</v>
+        <v>98090100016</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
       </c>
       <c r="D128">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>98090100015</v>
+        <v>98090100017</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
       </c>
       <c r="D129">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -2998,13 +2998,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>98090100016</v>
+        <v>98090100018</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
       </c>
       <c r="D130">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>98090100017</v>
+        <v>98090100019</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
       </c>
       <c r="D131">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -3032,16 +3032,16 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>98090100018</v>
+        <v>98090100020</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
       </c>
       <c r="D132">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>98090100019</v>
+        <v>98090100021</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
       </c>
       <c r="D133">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3066,13 +3066,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>98090100020</v>
+        <v>98090100022</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
       </c>
       <c r="D134">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -3083,13 +3083,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>98090100021</v>
+        <v>98090100023</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
       </c>
       <c r="D135">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -3100,13 +3100,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>98090100022</v>
+        <v>98090100024</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
       </c>
       <c r="D136">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>98090100023</v>
+        <v>98090100025</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
       </c>
       <c r="D137">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>98090100024</v>
+        <v>98090100026</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
       </c>
       <c r="D138">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>98090100025</v>
+        <v>98090100027</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
       </c>
       <c r="D139">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -3168,13 +3168,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>98090100026</v>
+        <v>98090100028</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
       </c>
       <c r="D140">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>98090100027</v>
+        <v>98090100029</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
       </c>
       <c r="D141">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -3202,52 +3202,18 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>98090100028</v>
+        <v>98090100030</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
       </c>
       <c r="D142">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>98090100029</v>
-      </c>
-      <c r="B143" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143">
-        <v>72</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>98090100030</v>
-      </c>
-      <c r="B144" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144">
-        <v>71</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
         <v>0</v>
       </c>
     </row>
